--- a/public/static/excell/sainfo-plantilla-clientes.xlsx
+++ b/public/static/excell/sainfo-plantilla-clientes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\data\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\trabajo\recursos\antrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245E8B37-DA3F-4EDF-8350-B57DCA64BC3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prov_clientes" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>tipo_cliente</t>
   </si>
@@ -48,25 +49,40 @@
     <t>C</t>
   </si>
   <si>
-    <t>00951</t>
-  </si>
-  <si>
-    <t>07564950</t>
-  </si>
-  <si>
-    <t>JULIO MAURICIO BALLESTEROS CONDORI</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>pccodi</t>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>VIC 934 469 614</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>zona</t>
+  </si>
+  <si>
+    <t>cvend</t>
+  </si>
+  <si>
+    <t>ubigeo</t>
+  </si>
+  <si>
+    <t>vendedor</t>
+  </si>
+  <si>
+    <t>AIDE CAMARGO</t>
+  </si>
+  <si>
+    <t>ALT.MDO.VILLA SAN LUIS  AV.DEFENSORES DE LIMA #117/ TELEFONO:939112162</t>
+  </si>
+  <si>
+    <t>VILLA SAN LUIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,24 +129,31 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -405,73 +428,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3:XFD5100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1" max="3" width="16.28515625" style="1"/>
+    <col min="4" max="4" width="30.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
